--- a/data/trans_orig/P55S6-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S6-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E92B9699-E138-4F7F-A021-E1B1A3E81294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF12F953-8167-4A9C-91DD-D4D4C43B54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{702EDB74-F8D6-4105-9574-3A127D10E4FF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32510689-08D2-48F6-B16A-F351B46CD0B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558201D1-4AE8-4C61-AB96-65648210C665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8D1731-9415-461F-A564-9ECA3714885E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S6-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S6-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF12F953-8167-4A9C-91DD-D4D4C43B54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA70F22F-9C11-4C84-81B0-8068FAF44B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32510689-08D2-48F6-B16A-F351B46CD0B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B8EF8F-E5F2-4739-A6E9-CF412361F587}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8D1731-9415-461F-A564-9ECA3714885E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A957578-64D1-4904-8808-B13A751FC54F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
